--- a/Surf/bduser.xlsx
+++ b/Surf/bduser.xlsx
@@ -14,7 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+  <si>
+    <t>kak</t>
+  </si>
+  <si>
+    <t>+380958630689</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,14 +357,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>